--- a/2000_Furusawa/data/raw/C135V79.xlsx
+++ b/2000_Furusawa/data/raw/C135V79.xlsx
@@ -46,6 +46,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -67,6 +68,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -218,10 +220,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:D19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J18" activeCellId="0" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -287,7 +289,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
-        <v>40.1</v>
+        <v>40.15</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>21.8</v>
@@ -301,7 +303,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
-        <v>40.6</v>
+        <v>40.599</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>22</v>
@@ -315,7 +317,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
-        <v>50.3</v>
+        <v>50.29</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>27.7</v>
@@ -329,7 +331,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
-        <v>54.2</v>
+        <v>54.522</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>29.9</v>
@@ -371,7 +373,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
-        <v>78.5</v>
+        <v>78.452</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>42.5</v>
@@ -469,43 +471,53 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
-        <v>137</v>
-      </c>
-      <c r="B18" s="2" t="n">
-        <v>73.1</v>
-      </c>
-      <c r="C18" s="2" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>1401</v>
-      </c>
+        <v>129.9</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="n">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B19" s="2" t="n">
+        <v>73.1</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="n">
+        <v>141.82</v>
+      </c>
+      <c r="B20" s="2" t="n">
         <v>75.6</v>
       </c>
-      <c r="C19" s="2" t="n">
+      <c r="C20" s="2" t="n">
         <v>12.4</v>
       </c>
-      <c r="D19" s="2" t="n">
+      <c r="D20" s="2" t="n">
         <v>1460</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-    </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="A21" s="2" t="n">
+        <v>151.5</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
